--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB5005-EEE9-491D-A1E1-F5B0221530D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64EBD65-E2BC-4503-B3ED-1FD797B0F051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="＃2" sheetId="2" r:id="rId3"/>
     <sheet name="＃3" sheetId="3" r:id="rId4"/>
     <sheet name="＃6" sheetId="4" r:id="rId5"/>
+    <sheet name="＃7" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="242">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -338,18 +339,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FOR /F "usebackq tokens=1,2 delims==" %%ii IN ('msg.txt') DO  %%ii = %%jj
-echo %MSG_E_9999%
-出力結果：error</t>
-    <rPh sb="92" eb="94">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>FORのオプション：
 (オプション無し) ディレクトリ内を対象にとる
 /d ディレクトリ（フォルダ）名を対象にとる
@@ -528,36 +517,6 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>＃２をご参考
-java,C#で実行ファイルを呼び出す場合、
-ストリームで実行ファイルのコンソール出力も取得できます。</t>
-    <rPh sb="4" eb="6">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＃3をご参考</t>
     <rPh sb="4" eb="6">
       <t>サンコウ</t>
@@ -775,14 +734,290 @@
     <t>EXIT /b 1   //バッチ終了。戻り値：1</t>
   </si>
   <si>
-    <t>SQLSERVER 差分更新</t>
+    <t>usebackq：コマンドの区切りにバッククォート (`) を使用することを指定。 IN に続くカッコ内にはバッククォート内にコマンドを指定します。
+FOR /F "usebackq tokens=1,2 delims==" %%ii IN (`msg.txt`) DO  %%ii = %%jj
+echo %MSG_E_9999%
+出力結果：error</t>
+    <rPh sb="167" eb="169">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">＃２をご参考
+java,C#で実行ファイルを呼び出す場合、
+ストリームで実行ファイルのコンソール出力も取得できます。
+FOR /F %i IN (test.txt) DO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>echo %i</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SQLSERVER 差分抽出</t>
     <rPh sb="10" eb="12">
       <t>サブン</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>コウシン</t>
+      <t>チュウシュツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＃7シートをご参考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回と前回のテーブルのカラムが同じで、
+　抽出SQLが単純なルールで作成できるので
+　SQL Serverに用意されているシステムカタログを利用すれば共通関数化できます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・差分データ作成の共通関数化について</t>
+  </si>
+  <si>
+    <t>　今回と前回のテーブルのカラムが同じで、</t>
+  </si>
+  <si>
+    <t>　抽出SQLが単純なルールで作成できるので</t>
+  </si>
+  <si>
+    <t>　SQL Serverに用意されているシステムカタログを利用すれば共通関数化できます。</t>
+  </si>
+  <si>
+    <t>①システムカタログで対象TBLのカラム情報を取り出すSQLの例</t>
+  </si>
+  <si>
+    <t>■コードTBL(TBL_CODE)のカラムとPKEYを取得する</t>
+  </si>
+  <si>
+    <t>/*------------------------</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     C.ORDINAL_POSITION                AS [No]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ,C.COLUMN_NAME                     AS [カラム名]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ,CASE WHEN pk_cols.[カラムID] IS NOT NULL THEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         cast(pk_cols.[カラムID] as varchar(max))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ELSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     END AS [PKEY]</t>
+  </si>
+  <si>
+    <t>FROM  INFORMATION_SCHEMA.COLUMNS C</t>
+  </si>
+  <si>
+    <t>LEFT JOIN (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             OBJECT_NAME(i.object_id)   AS [テーブル名]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,i.index_id                 AS [INDEX_ID]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,i.name                     AS [INDEX名]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,ic.index_column_id         AS [カラムID]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,COL_NAME(ic.object_id,ic.column_id) AS [カラム名]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FROM sys.indexes AS i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        INNER JOIN sys.index_columns AS ic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ON i.object_id = ic.object_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WHERE 0=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            and i.is_primary_key = 1 --PKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ) pk_cols ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        C.TABLE_NAME = pk_cols.[テーブル名]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AND C.COLUMN_NAME = pk_cols.[カラム名]</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C.TABLE_NAME = 'TBL_CODE' --ここにテーブル名をご指定ください。</t>
+  </si>
+  <si>
+    <t>ORDER BY 1</t>
+  </si>
+  <si>
+    <t>------------------------*/</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>カラム名</t>
+  </si>
+  <si>
+    <t>PKEY</t>
+  </si>
+  <si>
+    <t>grp_cd_id</t>
+  </si>
+  <si>
+    <t>cd_id</t>
+  </si>
+  <si>
+    <t>grp_cd_ka</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>②今回作成する、差分データ（更新分）取得のSQL例。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      T1.grp_cd_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    , T1.cd_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    , T1.grp_cd_ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ...</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TBL_CODE T1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXISTS ( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT * FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TBL_CODE_TMP T2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WHERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                T1.grp_cd_id          = T2.grp_cd_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AND T1.cd_id       = T2.cd_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AND ( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            --PK以外</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   T1.grp_cd_ka        &lt;&gt; T2.grp_cd_ka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                OR T1.その他             &lt;&gt; T2.その他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ) </t>
+  </si>
+  <si>
+    <t>③　JAVA、C#、VBSなどで①、②を元に作成したサンプルプログラム</t>
+  </si>
+  <si>
+    <t>②のようなSQLを作成する</t>
+  </si>
+  <si>
+    <t>　</t>
   </si>
 </sst>
 </file>
@@ -792,7 +1027,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +1056,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1196,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1236,10 +1477,10 @@
         <v>44089</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1258,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
@@ -1276,7 +1517,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
@@ -1294,7 +1535,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.45">
@@ -1309,7 +1550,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -1322,14 +1563,14 @@
         <v>44119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1340,15 +1581,19 @@
       <c r="C8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1525,28 +1770,28 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1556,77 +1801,77 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
@@ -1636,121 +1881,121 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" t="s">
         <v>135</v>
-      </c>
-      <c r="G33" t="s">
-        <v>136</v>
-      </c>
-      <c r="I33" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" t="s">
         <v>138</v>
-      </c>
-      <c r="G34" t="s">
-        <v>139</v>
-      </c>
-      <c r="I34" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
@@ -1760,62 +2005,62 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
@@ -1825,52 +2070,52 @@
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2122,267 +2367,634 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15FE14C-5307-490D-978E-F6F6CAC4AE37}">
+  <dimension ref="B1:D71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64EBD65-E2BC-4503-B3ED-1FD797B0F051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB64E08-3B93-463F-97CC-2C1C119C4106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="＃3" sheetId="3" r:id="rId4"/>
     <sheet name="＃6" sheetId="4" r:id="rId5"/>
     <sheet name="＃7" sheetId="6" r:id="rId6"/>
+    <sheet name="＃12" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="250">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -747,6 +748,276 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>SQLSERVER 差分抽出</t>
+    <rPh sb="10" eb="12">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＃7シートをご参考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回と前回のテーブルのカラムが同じで、
+　抽出SQLが単純なルールで作成できるので
+　SQL Serverに用意されているシステムカタログを利用すれば共通関数化できます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・差分データ作成の共通関数化について</t>
+  </si>
+  <si>
+    <t>　今回と前回のテーブルのカラムが同じで、</t>
+  </si>
+  <si>
+    <t>　抽出SQLが単純なルールで作成できるので</t>
+  </si>
+  <si>
+    <t>　SQL Serverに用意されているシステムカタログを利用すれば共通関数化できます。</t>
+  </si>
+  <si>
+    <t>①システムカタログで対象TBLのカラム情報を取り出すSQLの例</t>
+  </si>
+  <si>
+    <t>■コードTBL(TBL_CODE)のカラムとPKEYを取得する</t>
+  </si>
+  <si>
+    <t>/*------------------------</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     C.ORDINAL_POSITION                AS [No]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ,C.COLUMN_NAME                     AS [カラム名]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ,CASE WHEN pk_cols.[カラムID] IS NOT NULL THEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         cast(pk_cols.[カラムID] as varchar(max))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ELSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     END AS [PKEY]</t>
+  </si>
+  <si>
+    <t>FROM  INFORMATION_SCHEMA.COLUMNS C</t>
+  </si>
+  <si>
+    <t>LEFT JOIN (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             OBJECT_NAME(i.object_id)   AS [テーブル名]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,i.index_id                 AS [INDEX_ID]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,i.name                     AS [INDEX名]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,ic.index_column_id         AS [カラムID]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ,COL_NAME(ic.object_id,ic.column_id) AS [カラム名]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FROM sys.indexes AS i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        INNER JOIN sys.index_columns AS ic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ON i.object_id = ic.object_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WHERE 0=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            and i.is_primary_key = 1 --PKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ) pk_cols ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        C.TABLE_NAME = pk_cols.[テーブル名]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AND C.COLUMN_NAME = pk_cols.[カラム名]</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C.TABLE_NAME = 'TBL_CODE' --ここにテーブル名をご指定ください。</t>
+  </si>
+  <si>
+    <t>ORDER BY 1</t>
+  </si>
+  <si>
+    <t>------------------------*/</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>カラム名</t>
+  </si>
+  <si>
+    <t>PKEY</t>
+  </si>
+  <si>
+    <t>grp_cd_id</t>
+  </si>
+  <si>
+    <t>cd_id</t>
+  </si>
+  <si>
+    <t>grp_cd_ka</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>②今回作成する、差分データ（更新分）取得のSQL例。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      T1.grp_cd_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    , T1.cd_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    , T1.grp_cd_ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ...</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TBL_CODE T1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXISTS ( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT * FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TBL_CODE_TMP T2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WHERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                T1.grp_cd_id          = T2.grp_cd_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AND T1.cd_id       = T2.cd_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AND ( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            --PK以外</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   T1.grp_cd_ka        &lt;&gt; T2.grp_cd_ka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                OR T1.その他             &lt;&gt; T2.その他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ) </t>
+  </si>
+  <si>
+    <t>③　JAVA、C#、VBSなどで①、②を元に作成したサンプルプログラム</t>
+  </si>
+  <si>
+    <t>②のようなSQLを作成する</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>BCPコマンドのオプション：改行コード</t>
+    <rPh sb="14" eb="16">
+      <t>カイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POSTMANの使い方</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＣＭＲにリボンをカスタマイズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面に動的に生成するボタンをHIDDEN</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイムー処理
+function HideARibbonButton(nameOfButton) {
+       var intervalId = window.setInterval(function () {
+           if (window.top.document.getElementById(nameOfButton) != null) {
+               window.clearInterval(intervalId);
+               //top menu has loaded window.top.document.getElementById(nameOfButton).style.visibility = 'hidden';
+           }
+       }, 100);
+}</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">＃２をご参考
 java,C#で実行ファイルを呼び出す場合、
@@ -755,7 +1026,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Meiryo"/>
         <family val="2"/>
@@ -764,7 +1035,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Meiryo"/>
         <family val="2"/>
@@ -799,225 +1070,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SQLSERVER 差分抽出</t>
-    <rPh sb="10" eb="12">
-      <t>サブン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＃7シートをご参考</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今回と前回のテーブルのカラムが同じで、
-　抽出SQLが単純なルールで作成できるので
-　SQL Serverに用意されているシステムカタログを利用すれば共通関数化できます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・差分データ作成の共通関数化について</t>
-  </si>
-  <si>
-    <t>　今回と前回のテーブルのカラムが同じで、</t>
-  </si>
-  <si>
-    <t>　抽出SQLが単純なルールで作成できるので</t>
-  </si>
-  <si>
-    <t>　SQL Serverに用意されているシステムカタログを利用すれば共通関数化できます。</t>
-  </si>
-  <si>
-    <t>①システムカタログで対象TBLのカラム情報を取り出すSQLの例</t>
-  </si>
-  <si>
-    <t>■コードTBL(TBL_CODE)のカラムとPKEYを取得する</t>
-  </si>
-  <si>
-    <t>/*------------------------</t>
-  </si>
-  <si>
-    <t>SELECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     C.ORDINAL_POSITION                AS [No]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ,C.COLUMN_NAME                     AS [カラム名]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ,CASE WHEN pk_cols.[カラムID] IS NOT NULL THEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         cast(pk_cols.[カラムID] as varchar(max))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     ELSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     END AS [PKEY]</t>
-  </si>
-  <si>
-    <t>FROM  INFORMATION_SCHEMA.COLUMNS C</t>
-  </si>
-  <si>
-    <t>LEFT JOIN (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        SELECT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             OBJECT_NAME(i.object_id)   AS [テーブル名]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ,i.index_id                 AS [INDEX_ID]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ,i.name                     AS [INDEX名]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ,ic.index_column_id         AS [カラムID]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ,COL_NAME(ic.object_id,ic.column_id) AS [カラム名]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        FROM sys.indexes AS i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        INNER JOIN sys.index_columns AS ic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ON i.object_id = ic.object_id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        WHERE 0=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            and i.is_primary_key = 1 --PKEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ) pk_cols ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        C.TABLE_NAME = pk_cols.[テーブル名]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    AND C.COLUMN_NAME = pk_cols.[カラム名]</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    C.TABLE_NAME = 'TBL_CODE' --ここにテーブル名をご指定ください。</t>
-  </si>
-  <si>
-    <t>ORDER BY 1</t>
-  </si>
-  <si>
-    <t>------------------------*/</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>カラム名</t>
-  </si>
-  <si>
-    <t>PKEY</t>
-  </si>
-  <si>
-    <t>grp_cd_id</t>
-  </si>
-  <si>
-    <t>cd_id</t>
-  </si>
-  <si>
-    <t>grp_cd_ka</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>②今回作成する、差分データ（更新分）取得のSQL例。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      T1.grp_cd_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    , T1.cd_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    , T1.grp_cd_ka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ...</t>
-  </si>
-  <si>
-    <t>FROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TBL_CODE T1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHERE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EXISTS ( </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        SELECT * FROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TBL_CODE_TMP T2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        WHERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        -- PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                T1.grp_cd_id          = T2.grp_cd_id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            AND T1.cd_id       = T2.cd_id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            AND ( </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            --PK以外</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   T1.grp_cd_ka        &lt;&gt; T2.grp_cd_ka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                OR T1.その他             &lt;&gt; T2.その他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ) </t>
-  </si>
-  <si>
-    <t>③　JAVA、C#、VBSなどで①、②を元に作成したサンプルプログラム</t>
-  </si>
-  <si>
-    <t>②のようなSQLを作成する</t>
-  </si>
-  <si>
-    <t>　</t>
+    <t>SSRS 改ページ</t>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１．Ｎ件/ページ
+　=Ceiling(RowNumber(Nothing)/50)
+２、改ページ
+　 改ページのオプション</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＃12をご参考</t>
+    <rPh sb="5" eb="7">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1027,7 +1107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,10 +1138,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Meiryo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1131,30 +1225,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1170,6 +1265,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>564572</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99645</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>48714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D15607-E29D-4D59-A6D5-F40566C270A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="564572" y="5963516"/>
+          <a:ext cx="6462346" cy="5238107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>51168</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6FD901-63B1-4C6E-B1B5-3E14D6909397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="242455"/>
+          <a:ext cx="6285714" cy="5114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>86634</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761F34FC-A796-4E7D-8CE7-629455E028AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7360227" y="259773"/>
+          <a:ext cx="6580952" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1437,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1476,15 +1708,15 @@
       <c r="B2" s="5">
         <v>44089</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.45">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <f t="shared" ref="A3:A24" si="0">ROW() - 1</f>
         <v>2</v>
@@ -1495,14 +1727,14 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="E3" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1510,17 +1742,17 @@
       <c r="B4" s="5">
         <v>44089</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1528,10 +1760,10 @@
       <c r="B5" s="5">
         <v>44119</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1546,10 +1778,10 @@
       <c r="B6" s="5">
         <v>44119</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>170</v>
       </c>
       <c r="E6" s="10"/>
@@ -1562,15 +1794,15 @@
       <c r="B7" s="5">
         <v>44119</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.45">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1578,14 +1810,14 @@
       <c r="B8" s="5">
         <v>44119</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1594,159 +1826,175 @@
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="181.5" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2250,7 +2498,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2640,201 +2888,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15FE14C-5307-490D-978E-F6F6CAC4AE37}">
   <dimension ref="B1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
         <v>210</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>211</v>
-      </c>
-      <c r="D40" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
@@ -2842,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2853,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2864,141 +3112,157 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E2009-0CE5-42AB-8052-01300128C2F0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB64E08-3B93-463F-97CC-2C1C119C4106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1D588E-A3E6-4CB8-BAED-D915E5A1A968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="＃3" sheetId="3" r:id="rId4"/>
     <sheet name="＃6" sheetId="4" r:id="rId5"/>
     <sheet name="＃7" sheetId="6" r:id="rId6"/>
-    <sheet name="＃12" sheetId="7" r:id="rId7"/>
+    <sheet name="＃10" sheetId="8" r:id="rId7"/>
+    <sheet name="＃12" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="339">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -983,10 +984,6 @@
     <rPh sb="10" eb="11">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ＣＭＲにリボンをカスタマイズ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1099,6 +1096,294 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>\nのASCIIを設定してください。
+※\nを設定するなら、自動的に\r\nになります。</t>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ジドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＣＲＭにリボンをカスタマイズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           リボンボタンをクリックする処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           for (i = 0; i &lt; SelectedControlSelectedItemIds.length; i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  selectedValues += "&lt;value&gt;" + SelectedControlSelectedItemIds[i].replace("{", "").replace("}", "") + "&lt;/value&gt;";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var reportName = "レポート名.rdl";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var queryPath = "reports" + "?$select=reportid &amp;$filter=filename eq '" + reportName + "' &amp;$count=true";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var reportRecord = Methods.RetrieveRecords(queryPath);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (reportRecord != null) {    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    var reportRecordCount = reportRecord['@odata.count'];    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if (reportRecordCount == 1) {    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        var reportGuid = reportRecord.value[0].reportid;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        var params = Methods.GetReportingSession(reportGuid,PrimaryEntityName, selectedValues, reportName, parameter);    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        var newPth = formContext.getClientUrl() + "/Reserved.ReportViewerWebControl.axd?ReportSession=" + params[0] + "&amp;Culture=1033&amp;CultureOverrides=True&amp;UICulture=1033&amp;UICultureOverrides=True&amp;ReportStack=1&amp;ControlID=" + params[1] + "&amp;OpType=Export&amp;FileName=owners_id_info_" + formatedDate + "&amp;ContentDisposition=OnlyHtmlInline&amp;Format=word";    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        window.open(newPth, "_self");    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        formPage.ui.refreshRibbon();    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          関数RetrieveRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  RetrieveRecords: function (QueryPath) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            try {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var retrieveUrl = formContext.getClientUrl() + "/api/data/v8.2/" + QueryPath,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    retrievedRecord = null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                console.log(retrieveUrl);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                retrieveUrl = decodeURI(retrieveUrl);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var req = new XMLHttpRequest();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.open("GET", retrieveUrl, false);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.setRequestHeader("Accept", "application/json ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.setRequestHeader("Content-Type", "application/json;charset=utf-8");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.setRequestHeader("OData-MaxVersion", "4.0 ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.setRequestHeader("OData-Version", "4.0 ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.onreadystatechange = function () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if (this.readyState === 4) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        req.onreadystatechange = null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        if (this.status === 204 || this.status === 200) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            retrievedRecord = JSON.parse(this.response);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            var error = JSON.parse(this.response).error;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            parent.Xrm.Utility.alertDialog(error.message);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.send();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return retrievedRecord;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            catch (err) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                formPage.ui.setFormNotification(err.message, "ERROR");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          関数GetReportingSession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  GetReportingSession: function (reportGuid, PrimaryEntityName, selectedValues,reportName, parameter) {        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        var memberNum = Methods.CheckAttributeExist(Constants.GroupFields.NEW_MEBMBERNUMBER);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var pth = formContext.getClientUrl() + "/CRMReports/rsviewer/QuirksReportViewer.aspx";        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var stringXML = "&lt;fetch version='1.0' output-format='xml-platform' mapping='logical' distinct='false' &gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;entity name='new_member' &gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;all-attributes /&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;filter type='and' &gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "  &lt;condition attribute='new_memberid' operator='in'&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                selectedValues +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;/condition&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;/filter&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                " &lt;/entity&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;/fetch&gt;";        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if(PrimaryEntityName !== null &amp;&amp; PrimaryEntityName == "new_test_user"){    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                stringXML =  "&lt;fetch version='1.0' output-format='xml-platform' mapping='logical' distinct='false' &gt;" +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;link-entity name='new_test_user' from='new_memberid' to='new_memberid' alias='tr' link-type='inner'&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;attribute name='user_id' /&gt; +    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;filter type='and' &gt; +    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      &lt;condition attribute='user_id' operator='in'&gt; +    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        selectedValues +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;/condition&gt; +    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;/filter&gt; +    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;/link-entity&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                console.log(stringXML);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var retrieveEntityReq = new XMLHttpRequest();        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            retrieveEntityReq.open("POST", pth, false);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            retrieveEntityReq.setRequestHeader("Accept", "*/*");        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            retrieveEntityReq.setRequestHeader("Content-Type", "application/x-www-form-urlencoded");        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            retrieveEntityReq.send("id=%7B" + reportGuid + "%7D&amp;uniquename=" + formContext.getOrgUniqueName() + "&amp;iscustomreport=true&amp;reportnameonsrs=&amp;reportName=" + reportName + "&amp;isScheduledReport=false&amp;p:CRM_Filterednew_member=" + stringXML);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var reportSession = retrieveEntityReq.responseText.lastIndexOf("ReportSession=");        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var controlID = retrieveEntityReq.responseText.lastIndexOf("ControlID=");        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var ret = new Array();        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ret[0] = retrieveEntityReq.responseText.substr(reportSession + 14, 24);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ret[1] = retrieveEntityReq.responseText.substr(controlID + 10, 32);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return ret;        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          }</t>
+  </si>
+  <si>
+    <t>ＸＭＲＴｏｏｌでワークベンチにボタンを追加する
+ＪＳでレポートを出力する</t>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＃10シートをご参考</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1107,7 +1392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,6 +1441,15 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1225,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1243,13 +1537,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1669,14 +1964,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="55.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.375" style="1" customWidth="1"/>
@@ -1731,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
@@ -1766,7 +2061,7 @@
       <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1784,7 +2079,7 @@
       <c r="D6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
@@ -1820,16 +2115,20 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>44146</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1837,36 +2136,46 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="5">
+        <v>44146</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="5">
+        <v>44146</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="181.5" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5">
+        <v>44146</v>
+      </c>
       <c r="C12" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -1875,15 +2184,17 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5">
+        <v>44146</v>
+      </c>
       <c r="C13" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -2010,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D2CEA6-571E-4029-9F52-CF9800BC1D65}">
   <dimension ref="B1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2376,7 +2687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018194F8-1108-4795-83EC-AAC750D119C2}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -2604,7 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044A16DD-1FD6-452E-B01C-213A41E0633B}">
   <dimension ref="B1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -3252,11 +3563,505 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DBAFAC-5899-44BE-8AFF-1F10B67076F7}">
+  <dimension ref="B2:B97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B94" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B96" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4E2009-0CE5-42AB-8052-01300128C2F0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1D588E-A3E6-4CB8-BAED-D915E5A1A968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB15ED48-4687-4EF9-8213-B7045C78545C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="345">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -1382,6 +1382,64 @@
   </si>
   <si>
     <t>＃10シートをご参考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Promise</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MutitonObserve</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動的に追加した要素の読み込み直後のタイミング
+//topのbodyに動的に追加した要素の読み込み直後のタイミングにCallbackを呼び出す
+ var observer = new MutationObserver(Methods.HideARibbonReportSubMenuCallback); 
+ observer.observe(window.top.document.body, {childList: true, subtree: true});
+  HideARibbonReportSubMenuCallback: function(e){//処理ロジック};</t>
+    <rPh sb="281" eb="283">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>// 監視を開始
+MutationObserverのobserve(target, {
+   attributes: true, // 属性変化の監視
+   attributeOldValue: true, // 変化前の属性値を matation.oldValue に格納する
+   characterData: true, // テキストノードの変化を監視
+    characterDataOldValue: true, // 変化前のテキストを matation.oldValue に格納する
+    childList: true, // 子ノードの変化を監視
+    subtree: true // 子孫ノードも監視対象に含める
+    });
+target：ＨＴＭＬの要素「body,div,ul....」</t>
+    <rPh sb="342" eb="344">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>promise.then(), promise.catch(), promise.finally()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期処理
+onst myPromise = 
+  (new Promise(myExecutorFunc))
+  .then(handleFulfilledA,handleRejectedA)
+  .then(handleFulfilledB,handleRejectedB)
+  .then(handleFulfilledC,handleRejectedC);
+// または、おそらく次の方がよい ...
+const myPromise =
+  (new Promise(myExecutorFunc))
+  .then(handleFulfilledA)
+  .then(handleFulfilledB)
+  .then(handleFulfilledC)
+  .catch(handleRejectedAny);</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1519,7 +1577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1538,13 +1596,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1964,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1974,7 +2035,7 @@
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="55.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2061,7 +2122,7 @@
       <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2079,7 +2140,7 @@
       <c r="D6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
@@ -2197,32 +2258,48 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="151.5" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="5">
+        <v>44155</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="211.5" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="5">
+        <v>44155</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2232,7 +2309,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2242,7 +2319,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2252,7 +2329,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2262,7 +2339,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2272,7 +2349,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -2282,7 +2359,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -2292,7 +2369,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2302,7 +2379,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -3576,7 +3653,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3656,7 +3733,7 @@
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3816,7 +3893,7 @@
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>296</v>
       </c>
     </row>

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB15ED48-4687-4EF9-8213-B7045C78545C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44FFEB0-4186-4A57-BDB8-9413142B6507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="＃7" sheetId="6" r:id="rId6"/>
     <sheet name="＃10" sheetId="8" r:id="rId7"/>
     <sheet name="＃12" sheetId="7" r:id="rId8"/>
+    <sheet name="＃17" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="365">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -1442,6 +1443,170 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t xml:space="preserve">document.onreadystatechange = function () {  
+   if (document.readyState == "complete") {  
+    getDataParam();  
+   }  
+  }  </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WebResouceページロード完了処理</t>
+    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/ja-jp/dynamics365/customerengagement/on-premises/developer/sample-pass-multiple-values-web-resource-through-data-parameter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CRMのメインＦＯｒｍでwebResourceのＨＴＭＬコントロール取得</t>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var webResourceControl = Xrm.page.getControl(Constants.Webresource.WEB_RESOURCE_NO333);
+            var alinkReport = webResourceControl.getObject().contentWindow.document.getElementById(Constants.Elements.A_LINK_REPORT);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CRM画面ロードの順番</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・CRM画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②メインフォーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③WebResource</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面のロード順：②　→　③　→　①</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①window.top（ワークベンチのリボンボタン）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調査：　ＪＳでリボンボタンをクリックする時、③の表示・非表示設定</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実現方式：</t>
+    <rPh sb="0" eb="2">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※リボンボタンクリックはＡＪＡＸで実現しているから、クリック後に全画面をリフレッシュしない。</t>
+    <rPh sb="4" eb="5">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③の表示・非表示を設定する</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③のwebReourceロードに①のwindow.top.documentの読込直後に該当リボンボタンのクリックイベントを追加して</t>
+    <rPh sb="38" eb="40">
+      <t>ヨミコミ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＃17シートをご参考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＤＢ分析関数</t>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://qiita.com/tlokweng/items/fc13dc30cc1aa28231c5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition
+FIRST_VALUE
+LAST_VALUE
+NTH_VALUE
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1450,7 +1615,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1509,8 +1674,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,8 +1696,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1573,11 +1752,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1597,17 +1857,56 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2025,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2122,7 +2421,7 @@
       <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2140,7 +2439,7 @@
       <c r="D6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
@@ -2269,7 +2568,7 @@
       <c r="C14" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2294,24 +2593,38 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="76.5" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="5">
+        <v>44183</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="76.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="5">
+        <v>44183</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -2319,20 +2632,34 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="5">
+        <v>44186</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>361</v>
+      </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="76.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="5">
+        <v>44186</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
@@ -2389,8 +2716,12 @@
     <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{E708110A-A215-4754-894D-F5BEDC8E65B7}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{B82AC339-F6C0-4596-831F-84C58ECB3B94}"/>
+  </hyperlinks>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2764,7 +3095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018194F8-1108-4795-83EC-AAC750D119C2}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -2992,7 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044A16DD-1FD6-452E-B01C-213A41E0633B}">
   <dimension ref="B1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -3643,7 +3974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DBAFAC-5899-44BE-8AFF-1F10B67076F7}">
   <dimension ref="B2:B97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4147,4 +4478,194 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FA23BB-FC2B-4F45-877B-A838CED62745}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="8" width="9" style="15"/>
+    <col min="9" max="9" width="4.25" style="15" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B2" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="J2" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="J3" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="J4" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="K5" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="K6" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="K7" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="E9:G12"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44FFEB0-4186-4A57-BDB8-9413142B6507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17014B15-A35D-47FD-A874-E1FFB40F6E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="368">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -1605,6 +1605,33 @@
 LAST_VALUE
 NTH_VALUE
 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＤＢ STUFF関数
+TUFF関数を使用して、先頭のコンマと余分なスペース文字を削除する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLSERVER グループしたデータをカンマ区切りで連結する
+</t>
+    <rPh sb="23" eb="25">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２０１７以降：STRING_AGG関数を使う
+2017より前：SELECT Name, Trophies = STUFF((SELECT ', ' + Trophy
+FROM  dbo.Player As P1
+WHERE P1.Name = P2.Name
+ORDER BY P1.Trophy
+FOR XML PATH(''), TYPE).value('.[1]', 'varchar(max)'), 1, 2, '')
+FROM dbo.Player as P2
+GROUP BY P2.Name;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1863,12 +1890,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1876,6 +1897,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1903,7 +1931,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2324,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2421,7 +2448,7 @@
       <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2439,7 +2466,7 @@
       <c r="D6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
@@ -2657,19 +2684,27 @@
       <c r="D19" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="20" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="120" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="5">
+        <v>44186</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
@@ -2677,7 +2712,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
@@ -4490,175 +4525,175 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="9" style="15"/>
-    <col min="9" max="9" width="4.25" style="15" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="15"/>
+    <col min="1" max="8" width="9" style="13"/>
+    <col min="9" max="9" width="4.25" style="13" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="J2" s="15" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="13" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="J3" s="15" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="J3" s="13" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="J4" s="15" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="J4" s="13" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="K5" s="15" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="K5" s="13" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="K6" s="15" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="K6" s="13" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="K7" s="15" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="K7" s="13" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="22" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="21"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="21"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="21"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="21"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17014B15-A35D-47FD-A874-E1FFB40F6E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A2B517-324B-4651-9817-F8A3C474B0A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="371">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -1632,6 +1632,56 @@
 FOR XML PATH(''), TYPE).value('.[1]', 'varchar(max)'), 1, 2, '')
 FROM dbo.Player as P2
 GROUP BY P2.Name;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SQL EXISTS句
+存在判定/相関副問合せ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>select * from 会員テーブル（外側ＳＱＬ）
+where exists(
+select * from 家族会員テーブル（内側ＳＱＬ）
+)</t>
+    <rPh sb="14" eb="16">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ウチガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①存在判定（テーブルを結合しない場合）
+select * from 会員テーブル
+where exists(select 1 from 家族会員テーブル　where ID = 1)
+AND  会員テーブル.会員ＩＤ　＝　２
+②相関副問い合わせ（テーブルを結合する場合）
+select * from 会員テーブル　t1
+where exists(select 1 from 家族会員テーブル t2　
+  where t1.ID = t2.会員ＩＤ)</t>
+    <rPh sb="103" eb="105">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>フクト</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>カイイン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2349,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2400,7 +2450,7 @@
     </row>
     <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A24" si="0">ROW() - 1</f>
+        <f t="shared" ref="A3:A30" si="0">ROW() - 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="5">
@@ -2688,7 +2738,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="120" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="138.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2706,15 +2756,23 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="120" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="5">
+        <v>44208</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
@@ -2723,8 +2781,8 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
@@ -2733,8 +2791,8 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
@@ -2743,8 +2801,68 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A2B517-324B-4651-9817-F8A3C474B0A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB844E9-9DBF-49A7-8C90-89C7E31ED6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="373">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -1681,6 +1681,65 @@
     </rPh>
     <rPh sb="218" eb="220">
       <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>正規表現
+*?　直前のパターンの0回以上繰り返し（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+      </rPr>
+      <t>最短一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）
++?　直前のパターンの1回以上繰り返し（最短一致）
+??　直前のパターンの0～1回繰り返し（最短一致）
+(?:～)　パターンのグループ</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列：ABC
+正規表現：ABC*　→　ABC　（最終）
+　　　　　ABC*?　→　AB　（最短、直前）</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チョクゼン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2401,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -2774,14 +2833,20 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="76.5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="5">
+        <v>44228</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB844E9-9DBF-49A7-8C90-89C7E31ED6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465F1A3-A842-4BD4-8745-8E06D8B7B15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <sheet name="＃10" sheetId="8" r:id="rId7"/>
     <sheet name="＃12" sheetId="7" r:id="rId8"/>
     <sheet name="＃17" sheetId="9" r:id="rId9"/>
+    <sheet name="＃22" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="404">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -1012,6 +1013,647 @@
 }</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSRS 改ページ</t>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１．Ｎ件/ページ
+　=Ceiling(RowNumber(Nothing)/50)
+２、改ページ
+　 改ページのオプション</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＃12をご参考</t>
+    <rPh sb="5" eb="7">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\nのASCIIを設定してください。
+※\nを設定するなら、自動的に\r\nになります。</t>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ジドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＣＲＭにリボンをカスタマイズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           リボンボタンをクリックする処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           for (i = 0; i &lt; SelectedControlSelectedItemIds.length; i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  selectedValues += "&lt;value&gt;" + SelectedControlSelectedItemIds[i].replace("{", "").replace("}", "") + "&lt;/value&gt;";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var reportName = "レポート名.rdl";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var queryPath = "reports" + "?$select=reportid &amp;$filter=filename eq '" + reportName + "' &amp;$count=true";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var reportRecord = Methods.RetrieveRecords(queryPath);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (reportRecord != null) {    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    var reportRecordCount = reportRecord['@odata.count'];    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if (reportRecordCount == 1) {    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        var reportGuid = reportRecord.value[0].reportid;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        var params = Methods.GetReportingSession(reportGuid,PrimaryEntityName, selectedValues, reportName, parameter);    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        var newPth = formContext.getClientUrl() + "/Reserved.ReportViewerWebControl.axd?ReportSession=" + params[0] + "&amp;Culture=1033&amp;CultureOverrides=True&amp;UICulture=1033&amp;UICultureOverrides=True&amp;ReportStack=1&amp;ControlID=" + params[1] + "&amp;OpType=Export&amp;FileName=owners_id_info_" + formatedDate + "&amp;ContentDisposition=OnlyHtmlInline&amp;Format=word";    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        window.open(newPth, "_self");    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        formPage.ui.refreshRibbon();    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          関数RetrieveRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  RetrieveRecords: function (QueryPath) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            try {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var retrieveUrl = formContext.getClientUrl() + "/api/data/v8.2/" + QueryPath,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    retrievedRecord = null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                console.log(retrieveUrl);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                retrieveUrl = decodeURI(retrieveUrl);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var req = new XMLHttpRequest();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.open("GET", retrieveUrl, false);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.setRequestHeader("Accept", "application/json ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.setRequestHeader("Content-Type", "application/json;charset=utf-8");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.setRequestHeader("OData-MaxVersion", "4.0 ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.setRequestHeader("OData-Version", "4.0 ");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.onreadystatechange = function () {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if (this.readyState === 4) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        req.onreadystatechange = null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        if (this.status === 204 || this.status === 200) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            retrievedRecord = JSON.parse(this.response);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            var error = JSON.parse(this.response).error;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            parent.Xrm.Utility.alertDialog(error.message);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                req.send();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return retrievedRecord;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            catch (err) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                formPage.ui.setFormNotification(err.message, "ERROR");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          関数GetReportingSession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  GetReportingSession: function (reportGuid, PrimaryEntityName, selectedValues,reportName, parameter) {        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        var memberNum = Methods.CheckAttributeExist(Constants.GroupFields.NEW_MEBMBERNUMBER);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var pth = formContext.getClientUrl() + "/CRMReports/rsviewer/QuirksReportViewer.aspx";        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var stringXML = "&lt;fetch version='1.0' output-format='xml-platform' mapping='logical' distinct='false' &gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;entity name='new_member' &gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;all-attributes /&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;filter type='and' &gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "  &lt;condition attribute='new_memberid' operator='in'&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                selectedValues +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;/condition&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;/filter&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                " &lt;/entity&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;/fetch&gt;";        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if(PrimaryEntityName !== null &amp;&amp; PrimaryEntityName == "new_test_user"){    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                stringXML =  "&lt;fetch version='1.0' output-format='xml-platform' mapping='logical' distinct='false' &gt;" +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;link-entity name='new_test_user' from='new_memberid' to='new_memberid' alias='tr' link-type='inner'&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;attribute name='user_id' /&gt; +    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;filter type='and' &gt; +    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      &lt;condition attribute='user_id' operator='in'&gt; +    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        selectedValues +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;/condition&gt; +    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;/filter&gt; +    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "&lt;/link-entity&gt;" +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                console.log(stringXML);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var retrieveEntityReq = new XMLHttpRequest();        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            retrieveEntityReq.open("POST", pth, false);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            retrieveEntityReq.setRequestHeader("Accept", "*/*");        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            retrieveEntityReq.setRequestHeader("Content-Type", "application/x-www-form-urlencoded");        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            retrieveEntityReq.send("id=%7B" + reportGuid + "%7D&amp;uniquename=" + formContext.getOrgUniqueName() + "&amp;iscustomreport=true&amp;reportnameonsrs=&amp;reportName=" + reportName + "&amp;isScheduledReport=false&amp;p:CRM_Filterednew_member=" + stringXML);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var reportSession = retrieveEntityReq.responseText.lastIndexOf("ReportSession=");        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var controlID = retrieveEntityReq.responseText.lastIndexOf("ControlID=");        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var ret = new Array();        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ret[0] = retrieveEntityReq.responseText.substr(reportSession + 14, 24);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ret[1] = retrieveEntityReq.responseText.substr(controlID + 10, 32);        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return ret;        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          }</t>
+  </si>
+  <si>
+    <t>ＸＭＲＴｏｏｌでワークベンチにボタンを追加する
+ＪＳでレポートを出力する</t>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＃10シートをご参考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Promise</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MutitonObserve</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動的に追加した要素の読み込み直後のタイミング
+//topのbodyに動的に追加した要素の読み込み直後のタイミングにCallbackを呼び出す
+ var observer = new MutationObserver(Methods.HideARibbonReportSubMenuCallback); 
+ observer.observe(window.top.document.body, {childList: true, subtree: true});
+  HideARibbonReportSubMenuCallback: function(e){//処理ロジック};</t>
+    <rPh sb="281" eb="283">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>// 監視を開始
+MutationObserverのobserve(target, {
+   attributes: true, // 属性変化の監視
+   attributeOldValue: true, // 変化前の属性値を matation.oldValue に格納する
+   characterData: true, // テキストノードの変化を監視
+    characterDataOldValue: true, // 変化前のテキストを matation.oldValue に格納する
+    childList: true, // 子ノードの変化を監視
+    subtree: true // 子孫ノードも監視対象に含める
+    });
+target：ＨＴＭＬの要素「body,div,ul....」</t>
+    <rPh sb="342" eb="344">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>promise.then(), promise.catch(), promise.finally()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期処理
+onst myPromise = 
+  (new Promise(myExecutorFunc))
+  .then(handleFulfilledA,handleRejectedA)
+  .then(handleFulfilledB,handleRejectedB)
+  .then(handleFulfilledC,handleRejectedC);
+// または、おそらく次の方がよい ...
+const myPromise =
+  (new Promise(myExecutorFunc))
+  .then(handleFulfilledA)
+  .then(handleFulfilledB)
+  .then(handleFulfilledC)
+  .catch(handleRejectedAny);</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">document.onreadystatechange = function () {  
+   if (document.readyState == "complete") {  
+    getDataParam();  
+   }  
+  }  </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WebResouceページロード完了処理</t>
+    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/ja-jp/dynamics365/customerengagement/on-premises/developer/sample-pass-multiple-values-web-resource-through-data-parameter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CRMのメインＦＯｒｍでwebResourceのＨＴＭＬコントロール取得</t>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>var webResourceControl = Xrm.page.getControl(Constants.Webresource.WEB_RESOURCE_NO333);
+            var alinkReport = webResourceControl.getObject().contentWindow.document.getElementById(Constants.Elements.A_LINK_REPORT);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CRM画面ロードの順番</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・CRM画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②メインフォーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③WebResource</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面のロード順：②　→　③　→　①</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①window.top（ワークベンチのリボンボタン）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調査：　ＪＳでリボンボタンをクリックする時、③の表示・非表示設定</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実現方式：</t>
+    <rPh sb="0" eb="2">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※リボンボタンクリックはＡＪＡＸで実現しているから、クリック後に全画面をリフレッシュしない。</t>
+    <rPh sb="4" eb="5">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③の表示・非表示を設定する</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③のwebReourceロードに①のwindow.top.documentの読込直後に該当リボンボタンのクリックイベントを追加して</t>
+    <rPh sb="38" eb="40">
+      <t>ヨミコミ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＃17シートをご参考</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＤＢ分析関数</t>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://qiita.com/tlokweng/items/fc13dc30cc1aa28231c5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition
+FIRST_VALUE
+LAST_VALUE
+NTH_VALUE
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＤＢ STUFF関数
+TUFF関数を使用して、先頭のコンマと余分なスペース文字を削除する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLSERVER グループしたデータをカンマ区切りで連結する
+</t>
+    <rPh sb="23" eb="25">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２０１７以降：STRING_AGG関数を使う
+2017より前：SELECT Name, Trophies = STUFF((SELECT ', ' + Trophy
+FROM  dbo.Player As P1
+WHERE P1.Name = P2.Name
+ORDER BY P1.Trophy
+FOR XML PATH(''), TYPE).value('.[1]', 'varchar(max)'), 1, 2, '')
+FROM dbo.Player as P2
+GROUP BY P2.Name;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SQL EXISTS句
+存在判定/相関副問合せ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>select * from 会員テーブル（外側ＳＱＬ）
+where exists(
+select * from 家族会員テーブル（内側ＳＱＬ）
+)</t>
+    <rPh sb="14" eb="16">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ウチガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①存在判定（テーブルを結合しない場合）
+select * from 会員テーブル
+where exists(select 1 from 家族会員テーブル　where ID = 1)
+AND  会員テーブル.会員ＩＤ　＝　２
+②相関副問い合わせ（テーブルを結合する場合）
+select * from 会員テーブル　t1
+where exists(select 1 from 家族会員テーブル t2　
+  where t1.ID = t2.会員ＩＤ)</t>
+    <rPh sb="103" eb="105">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>フクト</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列：ABC
+正規表現：ABC*　→　ABC　（最終）
+　　　　　ABC*?　→　AB　（最短、直前）</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>チョクゼン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1037,7 +1679,6 @@
         <color theme="1"/>
         <rFont val="Meiryo"/>
         <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>echo %i</t>
     </r>
@@ -1064,623 +1705,6 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SSRS 改ページ</t>
-    <rPh sb="5" eb="6">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>１．Ｎ件/ページ
-　=Ceiling(RowNumber(Nothing)/50)
-２、改ページ
-　 改ページのオプション</t>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＃12をご参考</t>
-    <rPh sb="5" eb="7">
-      <t>サンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>\nのASCIIを設定してください。
-※\nを設定するなら、自動的に\r\nになります。</t>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ジドウテキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ＣＲＭにリボンをカスタマイズ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">           リボンボタンをクリックする処理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           for (i = 0; i &lt; SelectedControlSelectedItemIds.length; i++) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  selectedValues += "&lt;value&gt;" + SelectedControlSelectedItemIds[i].replace("{", "").replace("}", "") + "&lt;/value&gt;";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var reportName = "レポート名.rdl";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var queryPath = "reports" + "?$select=reportid &amp;$filter=filename eq '" + reportName + "' &amp;$count=true";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var reportRecord = Methods.RetrieveRecords(queryPath);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (reportRecord != null) {    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    var reportRecordCount = reportRecord['@odata.count'];    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (reportRecordCount == 1) {    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        var reportGuid = reportRecord.value[0].reportid;    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        var params = Methods.GetReportingSession(reportGuid,PrimaryEntityName, selectedValues, reportName, parameter);    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        var newPth = formContext.getClientUrl() + "/Reserved.ReportViewerWebControl.axd?ReportSession=" + params[0] + "&amp;Culture=1033&amp;CultureOverrides=True&amp;UICulture=1033&amp;UICultureOverrides=True&amp;ReportStack=1&amp;ControlID=" + params[1] + "&amp;OpType=Export&amp;FileName=owners_id_info_" + formatedDate + "&amp;ContentDisposition=OnlyHtmlInline&amp;Format=word";    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        window.open(newPth, "_self");    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        formPage.ui.refreshRibbon();    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    }    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          関数RetrieveRecords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  RetrieveRecords: function (QueryPath) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            try {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                var retrieveUrl = formContext.getClientUrl() + "/api/data/v8.2/" + QueryPath,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    retrievedRecord = null;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                console.log(retrieveUrl);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                retrieveUrl = decodeURI(retrieveUrl);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                var req = new XMLHttpRequest();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                req.open("GET", retrieveUrl, false);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                req.setRequestHeader("Accept", "application/json ");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                req.setRequestHeader("Content-Type", "application/json;charset=utf-8");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                req.setRequestHeader("OData-MaxVersion", "4.0 ");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                req.setRequestHeader("OData-Version", "4.0 ");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                req.onreadystatechange = function () {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    if (this.readyState === 4) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        req.onreadystatechange = null;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        if (this.status === 204 || this.status === 200) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            retrievedRecord = JSON.parse(this.response);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        else {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            var error = JSON.parse(this.response).error;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            parent.Xrm.Utility.alertDialog(error.message);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                };</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                req.send();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                return retrievedRecord;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            catch (err) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                formPage.ui.setFormNotification(err.message, "ERROR");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          関数GetReportingSession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  GetReportingSession: function (reportGuid, PrimaryEntityName, selectedValues,reportName, parameter) {        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        var memberNum = Methods.CheckAttributeExist(Constants.GroupFields.NEW_MEBMBERNUMBER);        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var pth = formContext.getClientUrl() + "/CRMReports/rsviewer/QuirksReportViewer.aspx";        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var stringXML = "&lt;fetch version='1.0' output-format='xml-platform' mapping='logical' distinct='false' &gt;" +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "&lt;entity name='new_member' &gt;" +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "&lt;all-attributes /&gt;" +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "&lt;filter type='and' &gt;" +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "  &lt;condition attribute='new_memberid' operator='in'&gt;" +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                selectedValues +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "&lt;/condition&gt;" +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "&lt;/filter&gt;" +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                " &lt;/entity&gt;" +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "&lt;/fetch&gt;";        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if(PrimaryEntityName !== null &amp;&amp; PrimaryEntityName == "new_test_user"){    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                stringXML =  "&lt;fetch version='1.0' output-format='xml-platform' mapping='logical' distinct='false' &gt;" +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "&lt;link-entity name='new_test_user' from='new_memberid' to='new_memberid' alias='tr' link-type='inner'&gt;" +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          &lt;attribute name='user_id' /&gt; +    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          &lt;filter type='and' &gt; +    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      &lt;condition attribute='user_id' operator='in'&gt; +    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        selectedValues +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    &lt;/condition&gt; +    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    &lt;/filter&gt; +    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "&lt;/link-entity&gt;" +        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            }    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                console.log(stringXML);        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var retrieveEntityReq = new XMLHttpRequest();        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            retrieveEntityReq.open("POST", pth, false);        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            retrieveEntityReq.setRequestHeader("Accept", "*/*");        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            retrieveEntityReq.setRequestHeader("Content-Type", "application/x-www-form-urlencoded");        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            retrieveEntityReq.send("id=%7B" + reportGuid + "%7D&amp;uniquename=" + formContext.getOrgUniqueName() + "&amp;iscustomreport=true&amp;reportnameonsrs=&amp;reportName=" + reportName + "&amp;isScheduledReport=false&amp;p:CRM_Filterednew_member=" + stringXML);        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var reportSession = retrieveEntityReq.responseText.lastIndexOf("ReportSession=");        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var controlID = retrieveEntityReq.responseText.lastIndexOf("ControlID=");        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var ret = new Array();        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ret[0] = retrieveEntityReq.responseText.substr(reportSession + 14, 24);        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ret[1] = retrieveEntityReq.responseText.substr(controlID + 10, 32);        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            return ret;        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          }</t>
-  </si>
-  <si>
-    <t>ＸＭＲＴｏｏｌでワークベンチにボタンを追加する
-ＪＳでレポートを出力する</t>
-    <rPh sb="19" eb="21">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＃10シートをご参考</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Promise</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MutitonObserve</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>動的に追加した要素の読み込み直後のタイミング
-//topのbodyに動的に追加した要素の読み込み直後のタイミングにCallbackを呼び出す
- var observer = new MutationObserver(Methods.HideARibbonReportSubMenuCallback); 
- observer.observe(window.top.document.body, {childList: true, subtree: true});
-  HideARibbonReportSubMenuCallback: function(e){//処理ロジック};</t>
-    <rPh sb="281" eb="283">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>// 監視を開始
-MutationObserverのobserve(target, {
-   attributes: true, // 属性変化の監視
-   attributeOldValue: true, // 変化前の属性値を matation.oldValue に格納する
-   characterData: true, // テキストノードの変化を監視
-    characterDataOldValue: true, // 変化前のテキストを matation.oldValue に格納する
-    childList: true, // 子ノードの変化を監視
-    subtree: true // 子孫ノードも監視対象に含める
-    });
-target：ＨＴＭＬの要素「body,div,ul....」</t>
-    <rPh sb="342" eb="344">
-      <t>ヨウソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>promise.then(), promise.catch(), promise.finally()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>非同期処理
-onst myPromise = 
-  (new Promise(myExecutorFunc))
-  .then(handleFulfilledA,handleRejectedA)
-  .then(handleFulfilledB,handleRejectedB)
-  .then(handleFulfilledC,handleRejectedC);
-// または、おそらく次の方がよい ...
-const myPromise =
-  (new Promise(myExecutorFunc))
-  .then(handleFulfilledA)
-  .then(handleFulfilledB)
-  .then(handleFulfilledC)
-  .catch(handleRejectedAny);</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">document.onreadystatechange = function () {  
-   if (document.readyState == "complete") {  
-    getDataParam();  
-   }  
-  }  </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>WebResouceページロード完了処理</t>
-    <rPh sb="16" eb="18">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://docs.microsoft.com/ja-jp/dynamics365/customerengagement/on-premises/developer/sample-pass-multiple-values-web-resource-through-data-parameter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CRMのメインＦＯｒｍでwebResourceのＨＴＭＬコントロール取得</t>
-    <rPh sb="34" eb="36">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>var webResourceControl = Xrm.page.getControl(Constants.Webresource.WEB_RESOURCE_NO333);
-            var alinkReport = webResourceControl.getObject().contentWindow.document.getElementById(Constants.Elements.A_LINK_REPORT);</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CRM画面ロードの順番</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジュンバン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・CRM画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②メインフォーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>③WebResource</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面のロード順：②　→　③　→　①</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>①window.top（ワークベンチのリボンボタン）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>調査：　ＪＳでリボンボタンをクリックする時、③の表示・非表示設定</t>
-    <rPh sb="0" eb="2">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実現方式：</t>
-    <rPh sb="0" eb="2">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※リボンボタンクリックはＡＪＡＸで実現しているから、クリック後に全画面をリフレッシュしない。</t>
-    <rPh sb="4" eb="5">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>③の表示・非表示を設定する</t>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>③のwebReourceロードに①のwindow.top.documentの読込直後に該当リボンボタンのクリックイベントを追加して</t>
-    <rPh sb="38" eb="40">
-      <t>ヨミコミ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>チョクゴ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＃17シートをご参考</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ＤＢ分析関数</t>
-    <rPh sb="2" eb="4">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://qiita.com/tlokweng/items/fc13dc30cc1aa28231c5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition
-FIRST_VALUE
-LAST_VALUE
-NTH_VALUE
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ＤＢ STUFF関数
-TUFF関数を使用して、先頭のコンマと余分なスペース文字を削除する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SQLSERVER グループしたデータをカンマ区切りで連結する
-</t>
-    <rPh sb="23" eb="25">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>レンケツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>２０１７以降：STRING_AGG関数を使う
-2017より前：SELECT Name, Trophies = STUFF((SELECT ', ' + Trophy
-FROM  dbo.Player As P1
-WHERE P1.Name = P2.Name
-ORDER BY P1.Trophy
-FOR XML PATH(''), TYPE).value('.[1]', 'varchar(max)'), 1, 2, '')
-FROM dbo.Player as P2
-GROUP BY P2.Name;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SQL EXISTS句
-存在判定/相関副問合せ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>select * from 会員テーブル（外側ＳＱＬ）
-where exists(
-select * from 家族会員テーブル（内側ＳＱＬ）
-)</t>
-    <rPh sb="14" eb="16">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ソトガワ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>カゾク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ウチガワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>①存在判定（テーブルを結合しない場合）
-select * from 会員テーブル
-where exists(select 1 from 家族会員テーブル　where ID = 1)
-AND  会員テーブル.会員ＩＤ　＝　２
-②相関副問い合わせ（テーブルを結合する場合）
-select * from 会員テーブル　t1
-where exists(select 1 from 家族会員テーブル t2　
-  where t1.ID = t2.会員ＩＤ)</t>
-    <rPh sb="103" eb="105">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ソウカン</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>フクト</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>カイイン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1704,7 +1728,6 @@
         <color theme="1"/>
         <rFont val="Meiryo"/>
         <family val="2"/>
-        <charset val="128"/>
       </rPr>
       <t>）
 +?　直前のパターンの1回以上繰り返し（最短一致）
@@ -1720,26 +1743,224 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>文字列：ABC
-正規表現：ABC*　→　ABC　（最終）
-　　　　　ABC*?　→　AB　（最短、直前）</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
+    <t>CRMのワークフロー＆業務ルール</t>
+    <rPh sb="11" eb="13">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・業務ルール</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロック/ロック解除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">条件を入力し、入力可/入力不可の設定が可能。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>　(例：修正日がブランクの場合、「用件」の項目を入力不可にする。)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージの表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェックに使用。条件を設定し、ＮＧの場合、エラーメッセージの表示が可能
+※どの項目にエラーメッセージを表示するか、設定が必要。
+　(例：操作種別(OP)、操作種別(担当者)の両方が選択されていた場合、エラーメッセージを表示。)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必須項目の設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件を入力し、必須項目の設定が可能。
+　(例：操作種別が「仮登録」の場合、「用件」の必須チェックを実施。)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示方法の設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件を入力し、項目の表示/非表示の制御が可能。
+　(例：操作種別が「仮登録」の場合、「用件」を非表示。)
+※業務ルールを使用し、条件付きで、タブの表示/非表示はできません。項目の表示/非表示の制御になります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィールド値の設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件を設定し、フィールドに値を設定可能。
+　(例：サービス種別がブランクの場合、「AS」を設定。)
+　※ブランクかどうかで判定する場合、初期値の設定ではなく、値の入力状態で判定するため、
+値が設定された後に、ブランクにし、他の項目にカーソルをあてると、業務ルールにより、値が再度設定されてしまいます。
+画面上表示されている項目に使用する場合は、注意が必要です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務ルールで条件を指定する場合、親子エンティティの項目は使用できません。</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オヤコ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主エンティティのみ、使用できます。</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ワークフロー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">レコードの新規作成 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レコードの新規作成が可能。
+主エンティティと関連付いていないエンティティのレコード作成も可能。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レコードの更新</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レコードの更新が可能。
+更新ができるのは、主エンティティか、関連付いている１つ上の階層の親エンティティのみ。
+子エンティティの更新は不可。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レコードの削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レコードの削除は不可。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 電子メールの送信が可能。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電子メール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワークフローの条件の設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>条件を付けて、レコードの新規作成/更新、メール送信が可能だが、
+条件に使用できる項目は、主エンティティか、関連付いている１つ上の階層の親エンティティのみ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワークフローの値の設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レコードの値設定や、メール送信時の値設定も、使用できる項目は、主エンティティか、関連付いている１つ上の階層の親エンティティのみ。_x000D_
+※オプションセットの項目に値を設定する時は、グローバルオプションセットを使用している場合、設定は可能。_x000D_
+　 グローバルオプションセットを使用していない場合、設定はできないため、_x000D_
+　 条件を付けて、設定しなければいけない。_x000D_
+　 例：物件種別が「マンション」の場合、"マンション"を設定。_x000D_
+　　　  物件種別が「戸建」の場合、"戸建"を設定。_x000D_
+　　　  ⇒グローバルオプションセットであれば、物件種別を設定。のみでよいが、_x000D_
+　　　　　 グローバルオプションセットでない場合、上記のように、区分値の数だけ、条件式を設定し、設定が必要。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>＃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>シートをご参考</t>
+    </r>
     <rPh sb="8" eb="10">
-      <t>セイキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オモテ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サイタン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>チョクゼン</t>
+      <t>サンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1751,7 +1972,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1795,13 +2016,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1818,8 +2032,75 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1835,6 +2116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1971,34 +2258,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2006,13 +2275,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,6 +2302,57 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2461,473 +2774,479 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="55.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5">
+      <c r="A2" s="23">
         <f>ROW() - 1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="24">
         <v>44089</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" ht="120">
+      <c r="A3" s="23">
         <f t="shared" ref="A3:A30" si="0">ROW() - 1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="24">
         <v>44089</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
+      <c r="E3" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5">
+      <c r="A4" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="24">
         <v>44089</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" ht="31.5">
+      <c r="A5" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="24">
         <v>44119</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" ht="159" customHeight="1">
+      <c r="A6" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="24">
         <v>44119</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="24">
         <v>44119</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="61.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="61.5">
+      <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="24">
         <v>44119</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" ht="31.5">
+      <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="24">
         <v>44146</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
+      <c r="D9" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="24">
         <v>44146</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.5">
+      <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="24">
         <v>44146</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="181.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
+    </row>
+    <row r="12" spans="1:5" ht="181.5">
+      <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="24">
         <v>44146</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="61.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" ht="61.5">
+      <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="24">
         <v>44146</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="151.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
+    </row>
+    <row r="14" spans="1:5" ht="151.5">
+      <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="24">
         <v>44155</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="211.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
+    </row>
+    <row r="15" spans="1:5" ht="211.5">
+      <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="24">
         <v>44155</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="76.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
+      <c r="E15" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="76.5">
+      <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="24">
         <v>44183</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="76.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
+    </row>
+    <row r="17" spans="1:5" ht="76.5">
+      <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="24">
         <v>44183</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="4">
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="24">
         <v>44186</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="76.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="4">
+      <c r="C18" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" ht="76.5">
+      <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="24">
         <v>44186</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E19" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="138.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="4">
+    </row>
+    <row r="20" spans="1:5" ht="138.75" customHeight="1">
+      <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="24">
         <v>44186</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="120" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
+      <c r="E20" s="26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="120">
+      <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="24">
         <v>44208</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="76.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="4">
+    </row>
+    <row r="22" spans="1:5" ht="76.5">
+      <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="24">
         <v>44228</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
+      <c r="D22" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
+      <c r="B23" s="24">
+        <v>44249</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="4">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="4">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="4">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="4">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="4">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="4">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2943,6 +3262,191 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7A4B9A-BE12-4B14-8F0A-9470CDE6F745}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="84.5" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="33" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A3" s="37">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="63">
+      <c r="A4" s="37">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="94.5">
+      <c r="A5" s="37">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.5">
+      <c r="A6" s="37">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="63">
+      <c r="A7" s="37">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="35" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="36" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="33" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.5">
+      <c r="A13" s="43">
+        <v>1</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="47.25">
+      <c r="A14" s="43">
+        <v>2</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="43">
+        <v>3</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="43">
+        <v>4</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5">
+      <c r="A17" s="43">
+        <v>5</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="161.25" customHeight="1">
+      <c r="A18" s="43">
+        <v>6</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D2CEA6-571E-4029-9F52-CF9800BC1D65}">
   <dimension ref="B1:I77"/>
@@ -2951,14 +3455,14 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9">
       <c r="B1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>108</v>
       </c>
@@ -2966,7 +3470,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9">
       <c r="B3" t="s">
         <v>110</v>
       </c>
@@ -2974,137 +3478,137 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9">
       <c r="B5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9">
       <c r="B10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9">
       <c r="B11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9">
       <c r="B12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9">
       <c r="B13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9">
       <c r="B15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9">
       <c r="B16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>133</v>
       </c>
@@ -3115,7 +3619,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>136</v>
       </c>
@@ -3126,7 +3630,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9">
       <c r="B35" t="s">
         <v>139</v>
       </c>
@@ -3137,7 +3641,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9">
       <c r="B36" t="s">
         <v>141</v>
       </c>
@@ -3148,157 +3652,157 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9">
       <c r="B37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:9">
       <c r="B40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:9">
       <c r="C41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:9">
       <c r="C42" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9">
       <c r="C43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:9">
       <c r="B44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:9">
       <c r="B45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:9">
       <c r="B48" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:2">
       <c r="B60" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:2">
       <c r="B62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:2">
       <c r="B67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:2">
       <c r="B68" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:2">
       <c r="B69" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:2">
       <c r="B72" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:2">
       <c r="B74" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:2">
       <c r="B75" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:2">
       <c r="B76" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:2">
       <c r="B77" t="s">
         <v>169</v>
       </c>
@@ -3317,98 +3821,98 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3428,103 +3932,103 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3">
       <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3">
       <c r="C2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3">
       <c r="C4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3">
       <c r="C6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3">
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3">
       <c r="C8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3">
       <c r="C11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3">
       <c r="C12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3">
       <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3">
       <c r="C14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3">
       <c r="C15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3">
       <c r="C16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:3">
       <c r="C23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -3545,272 +4049,272 @@
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>68</v>
       </c>
@@ -3829,189 +4333,189 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
         <v>209</v>
       </c>
@@ -4022,7 +4526,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:4">
       <c r="B41">
         <v>1</v>
       </c>
@@ -4033,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:4">
       <c r="B42">
         <v>2</v>
       </c>
@@ -4044,7 +4548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:4">
       <c r="B43">
         <v>3</v>
       </c>
@@ -4052,132 +4556,132 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:4">
       <c r="B44" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:4">
       <c r="B46" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:4">
       <c r="B47" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:4">
       <c r="B48" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:2">
       <c r="B60" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:2">
       <c r="B62" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:2">
       <c r="B63" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:2">
       <c r="B67" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:2">
       <c r="B68" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:2">
       <c r="B70" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:2">
       <c r="B71" t="s">
         <v>239</v>
       </c>
@@ -4196,484 +4700,484 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="10" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B45" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B47" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B51" s="10" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B54" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B56" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B58" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B59" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B60" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B62" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B63" t="s">
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B65" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B66" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B67" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B68" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B69" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B70" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B71" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B73" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B76" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B77" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B78" t="s">
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B79" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B80" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B81" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B82" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B83" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B84" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B85" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B86" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B87" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B88" t="s">
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B89" t="s">
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B90" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B91" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B92" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B93" t="s">
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B94" t="s">
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B95" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B96" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B97" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4690,7 +5194,7 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4706,177 +5210,177 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="8" width="9" style="13"/>
-    <col min="9" max="9" width="4.25" style="13" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="13"/>
+    <col min="1" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="4.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="J2" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="J3" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="9" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B2" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="J2" s="13" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="J3" s="13" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="J4" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="17" t="s">
+    <row r="5" spans="1:11">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="K5" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="K6" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="K7" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="J4" s="13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="K5" s="13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="K6" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="K7" s="13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465F1A3-A842-4BD4-8745-8E06D8B7B15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CFE812-65C9-45A2-A431-ABFECAF41A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="405">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -1962,6 +1962,11 @@
     <rPh sb="8" eb="10">
       <t>サンコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>// 1秒後に開く
+setTimeout(() =&gt; window.open('http://google.com'), 1000);</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2049,6 +2054,8 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2275,33 +2282,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2316,12 +2296,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2353,6 +2327,39 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2773,480 +2780,482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="55.375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="3.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23">
+      <c r="A2" s="14">
         <f>ROW() - 1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="15">
         <v>44089</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="120">
-      <c r="A3" s="23">
+      <c r="A3" s="14">
         <f t="shared" ref="A3:A30" si="0">ROW() - 1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="15">
         <v>44089</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5">
-      <c r="A4" s="23">
+      <c r="A4" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="15">
         <v>44089</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.5">
-      <c r="A5" s="23">
+      <c r="A5" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="15">
         <v>44119</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="159" customHeight="1">
-      <c r="A6" s="23">
+      <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="15">
         <v>44119</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="29"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23">
+      <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="15">
         <v>44119</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="61.5">
-      <c r="A8" s="23">
+      <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="15">
         <v>44119</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5">
-      <c r="A9" s="23">
+      <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="15">
         <v>44146</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="23">
+      <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="15">
         <v>44146</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="31.5">
-      <c r="A11" s="23">
+      <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="15">
         <v>44146</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="16" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="181.5">
-      <c r="A12" s="23">
+      <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="15">
         <v>44146</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="18" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="61.5">
-      <c r="A13" s="23">
+      <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="15">
         <v>44146</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="16" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="151.5">
-      <c r="A14" s="23">
+      <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="15">
         <v>44155</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="18" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="211.5">
-      <c r="A15" s="23">
+      <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="15">
         <v>44155</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="76.5">
-      <c r="A16" s="23">
+      <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="15">
         <v>44183</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="20" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="76.5">
-      <c r="A17" s="23">
+      <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="15">
         <v>44183</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="23">
+      <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="15">
         <v>44186</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" ht="76.5">
-      <c r="A19" s="23">
+      <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="15">
         <v>44186</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="21" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="138.75" customHeight="1">
-      <c r="A20" s="23">
+      <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="15">
         <v>44186</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="17" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="120">
-      <c r="A21" s="23">
+      <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="15">
         <v>44208</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="17" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="76.5">
-      <c r="A22" s="23">
+      <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="15">
         <v>44228</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23">
+      <c r="A23" s="14">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="15">
         <v>44249</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="23">
+      <c r="A24" s="14">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="23">
+      <c r="A25" s="14">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="23">
+      <c r="A26" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23">
+      <c r="A27" s="14">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23">
+      <c r="A28" s="14">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23">
+      <c r="A29" s="14">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="23">
+      <c r="A30" s="14">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3272,172 +3281,172 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="84.5" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="3.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="84.5" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="22" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="31" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A3" s="37">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="28" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="63">
-      <c r="A4" s="37">
+    <row r="4" spans="1:3" ht="47.25">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="29" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="94.5">
-      <c r="A5" s="37">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="30" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31.5">
-      <c r="A6" s="37">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="29" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="63">
-      <c r="A7" s="37">
+    <row r="7" spans="1:3" ht="47.25">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="29" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="24" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="25" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="22" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="31" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31.5">
-      <c r="A13" s="43">
+      <c r="A13" s="32">
         <v>1</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="30" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="47.25">
-      <c r="A14" s="43">
+      <c r="A14" s="32">
         <v>2</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="30" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="43">
+      <c r="A15" s="32">
         <v>3</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="32" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="43">
+      <c r="A16" s="32">
         <v>4</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="30" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.5">
-      <c r="A17" s="43">
+      <c r="A17" s="32">
         <v>5</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="30" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="161.25" customHeight="1">
-      <c r="A18" s="43">
+      <c r="A18" s="32">
         <v>6</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="32" t="s">
         <v>401</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="30" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5224,27 +5233,27 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
       <c r="J2" s="5" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
       <c r="J3" s="5" t="s">
         <v>355</v>
       </c>
@@ -5312,38 +5321,38 @@
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:11">

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CFE812-65C9-45A2-A431-ABFECAF41A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C8369D-6101-4693-9FC6-5B4BF29BDF24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="408">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -1371,25 +1371,6 @@
   </si>
   <si>
     <t>promise.then(), promise.catch(), promise.finally()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>非同期処理
-onst myPromise = 
-  (new Promise(myExecutorFunc))
-  .then(handleFulfilledA,handleRejectedA)
-  .then(handleFulfilledB,handleRejectedB)
-  .then(handleFulfilledC,handleRejectedC);
-// または、おそらく次の方がよい ...
-const myPromise =
-  (new Promise(myExecutorFunc))
-  .then(handleFulfilledA)
-  .then(handleFulfilledB)
-  .then(handleFulfilledC)
-  .catch(handleRejectedAny);</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1967,6 +1948,46 @@
   <si>
     <t>// 1秒後に開く
 setTimeout(() =&gt; window.open('http://google.com'), 1000);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非同期処理
+const myPromise = 
+  (new Promise(myExecutorFunc))
+  .then(handleFulfilledA,handleRejectedA)
+  .then(handleFulfilledB,handleRejectedB)
+  .then(handleFulfilledC,handleRejectedC);
+// または、おそらく次の方がよい ...
+const myPromise =
+  (new Promise(myExecutorFunc))
+  .then(handleFulfilledA)
+  .then(handleFulfilledB)
+  .then(handleFulfilledC)
+  .catch(handleRejectedAny);</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イベントリスナーを1回のみ設定する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イベントリスナーは何回クリックしても有効ですが、オプション設定で処理を1回だけにすることが可能です。
+指定方法は以下のように配列形式で、イベントリスナーの第3引数に指定します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>window.addEventListener('load', function(){
+  var option = {
+    once: true
+  };
+  document.getElementById("button1").addEventListener('click', sayHello, option);
+});
+function sayHello() {
+  alert("Hello");
+}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2267,7 +2288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2359,6 +2380,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2842,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5">
@@ -2994,7 +3018,7 @@
         <v>244</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="61.5">
@@ -3045,7 +3069,7 @@
         <v>338</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>342</v>
@@ -3060,13 +3084,13 @@
         <v>44183</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="76.5">
@@ -3078,10 +3102,10 @@
         <v>44183</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>347</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>348</v>
       </c>
       <c r="E17" s="16"/>
     </row>
@@ -3094,10 +3118,10 @@
         <v>44186</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E18" s="16"/>
     </row>
@@ -3110,13 +3134,13 @@
         <v>44186</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>361</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="138.75" customHeight="1">
@@ -3128,13 +3152,13 @@
         <v>44186</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>366</v>
-      </c>
       <c r="E20" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="120">
@@ -3146,13 +3170,13 @@
         <v>44208</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="76.5">
@@ -3164,10 +3188,10 @@
         <v>44228</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E22" s="17"/>
     </row>
@@ -3180,22 +3204,28 @@
         <v>44249</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="165">
       <c r="A24" s="14">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="14">
@@ -3289,18 +3319,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" customHeight="1">
@@ -3308,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>377</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="47.25">
@@ -3319,10 +3349,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>379</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="94.5">
@@ -3330,10 +3360,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>385</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31.5">
@@ -3341,10 +3371,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>381</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="47.25">
@@ -3352,36 +3382,36 @@
         <v>5</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>383</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31.5">
@@ -3389,10 +3419,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>390</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="47.25">
@@ -3400,10 +3430,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3411,10 +3441,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>395</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3422,10 +3452,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.5">
@@ -3433,10 +3463,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>399</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="161.25" customHeight="1">
@@ -3444,10 +3474,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>401</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5229,12 +5259,12 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -5243,7 +5273,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="37"/>
       <c r="J2" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5255,12 +5285,12 @@
       <c r="G3" s="39"/>
       <c r="H3" s="40"/>
       <c r="J3" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -5269,7 +5299,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
       <c r="J4" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5281,7 +5311,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
       <c r="K5" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5293,7 +5323,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="K6" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5305,7 +5335,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
       <c r="K7" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5322,7 +5352,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="37"/>

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C8369D-6101-4693-9FC6-5B4BF29BDF24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D4FB7B-85E2-466E-A6F1-4D62DE4CFC4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="414">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -1990,6 +1990,106 @@
 }</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>cmd || $?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">|| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">顺序执行多条命令，当碰到执行正确的命令后将不执行后面的命令（即：只有前面命令执行错误时才执行后面命令）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> コマンドプロンプトで終了コード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dir /b C:\Users\user\Desktop\work\NFDN\bat\data\*.csv | findstr "test_[^\d+\\]*$"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正規表現でDIRのファイル一覧を出力する</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>asw s3ファイル存在チェック</t>
+    <rPh sb="10" eb="12">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>asw s3 ls s://bucket/test.txt || not_exist=true
+ech %not_exist%</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1998,7 +2098,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2126,6 +2226,20 @@
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2288,7 +2402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2348,6 +2462,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2381,8 +2498,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2804,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2901,7 +3018,7 @@
       <c r="D5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2919,7 +3036,7 @@
       <c r="D6" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14">
@@ -3217,7 +3334,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="33" t="s">
         <v>405</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3227,34 +3344,46 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="59.25">
       <c r="A25" s="14">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>409</v>
+      </c>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
+      <c r="C26" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>410</v>
+      </c>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="14">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5">
@@ -5263,27 +5392,27 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
       <c r="J2" s="5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
       <c r="J3" s="5" t="s">
         <v>354</v>
       </c>
@@ -5351,38 +5480,38 @@
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:11">

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D4FB7B-85E2-466E-A6F1-4D62DE4CFC4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8197523F-9BE7-487E-AE0C-D0FEFE79D413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="416">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -2088,6 +2088,122 @@
   <si>
     <t>asw s3 ls s://bucket/test.txt || not_exist=true
 ech %not_exist%</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　ブロック中の変数　、ブロック終了時点に反映する
+ブロック中に反映するため、遅延環境変数をセットください。</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">@echo off
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+      </rPr>
+      <t>setlocal enabledelayedexpansion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+for %%i in (C:\Users\user\Desktop\work\NFDN\bat\data\test_*.csv) do (
+    set x=%%i
+    echo !x!
+)
+echo forend x:%x%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+      </rPr>
+      <t>endlocal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2402,7 +2518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2465,6 +2581,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2498,8 +2617,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2921,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3018,7 +3140,7 @@
       <c r="D5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="35" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3036,7 +3158,7 @@
       <c r="D6" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14">
@@ -3353,7 +3475,7 @@
       <c r="C25" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="34" t="s">
         <v>409</v>
       </c>
       <c r="E25" s="17"/>
@@ -3386,14 +3508,18 @@
       </c>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="155.25" customHeight="1">
       <c r="A28" s="14">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>415</v>
+      </c>
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5">
@@ -3426,7 +3552,7 @@
     <hyperlink ref="E19" r:id="rId2" xr:uid="{B82AC339-F6C0-4596-831F-84C58ECB3B94}"/>
   </hyperlinks>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5392,27 +5518,27 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
       <c r="J2" s="5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="J3" s="5" t="s">
         <v>354</v>
       </c>
@@ -5480,38 +5606,38 @@
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:11">

--- a/QA/課題.xlsx
+++ b/QA/課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\work\Git\-\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8197523F-9BE7-487E-AE0C-D0FEFE79D413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FC8F62-B160-4D85-8A8D-D650D16B4FB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="417">
   <si>
     <t>＃</t>
     <phoneticPr fontId="2"/>
@@ -2204,6 +2204,44 @@
       <t xml:space="preserve">
  </t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for %%a in (C:\Users\user\Desktop\work\NFDN\bat\data\test_*.csv) do (
+ 	set CVS_PATH=%%a
+	echo !CVS_PATH!
+	set CVS_NAME=!CVS_PATH:C:\Users\user\Desktop\work\NFDN\bat\data\=!
+	set CVS_NAME=!CVS_NAME:.csv=!
+	echo !CVS_NAME!
+	echo !CVS_NAME:~-4!
+)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>結果：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+      </rPr>
+      <t>C:\Users\user\Desktop\work\NFDN\bat\data\test_1000.csv
+test_1000
+1000</t>
+    </r>
+    <rPh sb="245" eb="247">
+      <t>ケッカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2584,6 +2622,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2616,12 +2660,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3043,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3140,7 +3178,7 @@
       <c r="D5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="37" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3158,7 +3196,7 @@
       <c r="D6" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14">
@@ -3508,19 +3546,21 @@
       </c>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="1:5" ht="155.25" customHeight="1">
+    <row r="28" spans="1:5" ht="165.75" customHeight="1">
       <c r="A28" s="14">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="17" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14">
@@ -5518,27 +5558,27 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
       <c r="J2" s="5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
       <c r="J3" s="5" t="s">
         <v>354</v>
       </c>
@@ -5606,38 +5646,38 @@
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:11">
